--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143226.461253601</v>
+        <v>2101402.679584594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7331775.363756222</v>
+        <v>7331775.363756223</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.1666138174382</v>
+        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>217.73626715623</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.3689578725061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>230.6992324161051</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>69.1170502640262</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>81.69545058833729</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.15592375897353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.48349183745782</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>88.2353509226315</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73.07344056211907</v>
       </c>
       <c r="D11" t="n">
-        <v>79.29702710004977</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>101.6323748713282</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>68.0400519749296</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.347200282567</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>43.12240526463283</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>300.0108965332379</v>
       </c>
       <c r="H14" t="n">
-        <v>112.7759009794627</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>1.85045672036978</v>
       </c>
       <c r="S15" t="n">
-        <v>106.2387529750474</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.11657133363958</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.12240526463283</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.66903017014559</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>272.8092066079149</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>29.38391736390409</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>172.4881521378465</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>65.477009927723</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,10 +2177,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.20776338009259</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.1860399441546</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>276.3674733919047</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>126.5233032108407</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>126.8958082950055</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2417,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>17.93784657305892</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.54254454879685</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>84.54254454879646</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>262.5826814140632</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>15.63489451647331</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>29.38391736390409</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>115.4152783393348</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>84.54254454879647</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>259.0394410549196</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>65.84239667741444</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>113.852680458016</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>120.1263698699159</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>191.2591398496932</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>330.2563598602941</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>104.8868088349004</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>170.3793418657768</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1165353722833</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>169.2336270216688</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>304.4752486854252</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>39.16452645773978</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>25.3101294723929</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>208.7695570167124</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.62501597002978</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>50.15718953603344</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.9316113046338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>309.7502768749609</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>57.17764812666919</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>103.9357482121867</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>112.6798305831064</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>161.8799880876248</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.456834824088546</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>60.11425531312958</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>37.70017516618166</v>
       </c>
       <c r="H43" t="n">
-        <v>129.6635172592367</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>314.0875778131952</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>48.27725558034583</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>218.9695719074747</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.3550458383074</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.76488010369895</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
         <v>53.75394372784808</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.9290827579601</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C3" t="n">
-        <v>529.4760534768332</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y3" t="n">
-        <v>703.9290827579601</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5536560184564</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>89.09634539710788</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.1352367728036</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C6" t="n">
-        <v>272.1352367728036</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>272.1352367728036</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>272.1352367728036</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4655,7 +4655,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>479.8955355377576</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>479.8955355377576</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>479.8955355377576</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="Y6" t="n">
-        <v>272.1352367728036</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>587.3248651012614</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>587.3248651012614</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>343.8760884571613</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>100.4273118130612</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>100.4273118130612</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>341.0228630172405</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>960.5384768869415</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>960.5384768869415</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>960.5384768869415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>960.5384768869415</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="V9" t="n">
-        <v>960.5384768869415</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="W9" t="n">
-        <v>717.0897002428414</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="X9" t="n">
-        <v>509.2382000373086</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="Y9" t="n">
-        <v>509.2382000373086</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1033.666099092319</v>
+        <v>1030.099085133332</v>
       </c>
       <c r="C11" t="n">
-        <v>1033.666099092319</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="D11" t="n">
-        <v>953.5680919205511</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E11" t="n">
-        <v>953.5680919205511</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F11" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5041,25 +5041,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
@@ -5071,22 +5071,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U11" t="n">
-        <v>2090.963399967083</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V11" t="n">
-        <v>1759.900512623512</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W11" t="n">
-        <v>1407.131857353398</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X11" t="n">
-        <v>1033.666099092319</v>
+        <v>1420.238417109144</v>
       </c>
       <c r="Y11" t="n">
-        <v>1033.666099092319</v>
+        <v>1030.099085133332</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>680.7073555380667</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C12" t="n">
-        <v>506.2543262569397</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D12" t="n">
-        <v>506.2543262569397</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5147,25 +5147,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.647118780378</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1982.104420834408</v>
+        <v>2054.345202970225</v>
       </c>
       <c r="U12" t="n">
-        <v>1753.923956488566</v>
+        <v>1826.164738624382</v>
       </c>
       <c r="V12" t="n">
-        <v>1518.771848256823</v>
+        <v>1591.012630392639</v>
       </c>
       <c r="W12" t="n">
-        <v>1264.534491528621</v>
+        <v>1336.775273664438</v>
       </c>
       <c r="X12" t="n">
-        <v>1056.682991323089</v>
+        <v>1128.923773458905</v>
       </c>
       <c r="Y12" t="n">
-        <v>848.9226925581347</v>
+        <v>921.1634746939509</v>
       </c>
     </row>
     <row r="13">
@@ -5202,43 +5202,43 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W13" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X13" t="n">
         <v>46.89499644164432</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.7584696660704</v>
+        <v>1477.059072784988</v>
       </c>
       <c r="C14" t="n">
-        <v>571.7959527256587</v>
+        <v>1477.059072784988</v>
       </c>
       <c r="D14" t="n">
-        <v>571.7959527256587</v>
+        <v>1477.059072784988</v>
       </c>
       <c r="E14" t="n">
-        <v>571.7959527256587</v>
+        <v>1091.270820186744</v>
       </c>
       <c r="F14" t="n">
-        <v>160.8100479360511</v>
+        <v>680.2849153971363</v>
       </c>
       <c r="G14" t="n">
-        <v>160.8100479360511</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967084</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V14" t="n">
-        <v>2090.963399967084</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.963399967084</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.497641706004</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.358309730192</v>
+        <v>1477.059072784988</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>676.0544483625931</v>
+        <v>680.7073555380667</v>
       </c>
       <c r="C15" t="n">
-        <v>501.6014190814661</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D15" t="n">
-        <v>352.6670094202149</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E15" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>273.126860749845</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583288</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2342.880673879823</v>
       </c>
       <c r="S15" t="n">
-        <v>2176.994211604904</v>
+        <v>2181.647118780378</v>
       </c>
       <c r="T15" t="n">
-        <v>1977.451513658935</v>
+        <v>1982.104420834408</v>
       </c>
       <c r="U15" t="n">
-        <v>1749.271049313092</v>
+        <v>1753.923956488566</v>
       </c>
       <c r="V15" t="n">
-        <v>1514.118941081349</v>
+        <v>1518.771848256823</v>
       </c>
       <c r="W15" t="n">
-        <v>1259.881584353148</v>
+        <v>1264.534491528621</v>
       </c>
       <c r="X15" t="n">
-        <v>1052.030084147615</v>
+        <v>1056.682991323089</v>
       </c>
       <c r="Y15" t="n">
-        <v>844.2697853826612</v>
+        <v>848.9226925581347</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5442,46 +5442,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>453.4106385108906</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>453.4106385108906</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V16" t="n">
-        <v>453.4106385108906</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W16" t="n">
-        <v>453.4106385108906</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X16" t="n">
-        <v>453.4106385108906</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="Y16" t="n">
-        <v>453.4106385108906</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>960.8539546480588</v>
+        <v>1329.81647158847</v>
       </c>
       <c r="C17" t="n">
         <v>960.8539546480588</v>
@@ -5521,10 +5521,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2301.649791607322</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2118.454678745298</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1898.471919376876</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1644.685497261743</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1313.622609918173</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>960.8539546480588</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X17" t="n">
-        <v>960.8539546480588</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y17" t="n">
-        <v>960.8539546480588</v>
+        <v>1716.416311652592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>843.8100588399052</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>669.3570295587782</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>520.4226198975269</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>361.1851648920714</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>214.6506069189564</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>76.57572105164846</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5627,19 +5627,19 @@
         <v>2145.207124136247</v>
       </c>
       <c r="U18" t="n">
-        <v>1917.026659790404</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V18" t="n">
-        <v>1681.874551558662</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W18" t="n">
-        <v>1427.63719483046</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>1219.785694624927</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>1012.025395859973</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5694,25 +5694,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.684223757015</v>
+        <v>1630.903438287023</v>
       </c>
       <c r="C20" t="n">
-        <v>1215.721706816603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D20" t="n">
-        <v>1215.721706816603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.721706816603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F20" t="n">
-        <v>804.7358020269955</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>386.4640345098804</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5758,10 +5758,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="X20" t="n">
-        <v>1971.284063821136</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="Y20" t="n">
-        <v>1971.284063821136</v>
+        <v>1630.903438287023</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>665.1949245686499</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2327.368242910406</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2166.134687810961</v>
       </c>
       <c r="T21" t="n">
-        <v>2145.207124136247</v>
+        <v>1966.591989864992</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1738.411525519149</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1503.259417287406</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1249.022060559205</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1041.170560353672</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>833.410261588718</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1952.812428015457</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="W22" t="n">
-        <v>2344.749822082216</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="X22" t="n">
-        <v>2134.460892845696</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y22" t="n">
-        <v>2134.460892845696</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1339.356344518795</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C23" t="n">
-        <v>1339.356344518795</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D23" t="n">
-        <v>1339.356344518795</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E23" t="n">
-        <v>953.5680919205511</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5821871309436</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V23" t="n">
-        <v>2065.590758049989</v>
+        <v>1356.722640393068</v>
       </c>
       <c r="W23" t="n">
-        <v>1712.822102779875</v>
+        <v>1003.953985122954</v>
       </c>
       <c r="X23" t="n">
-        <v>1339.356344518795</v>
+        <v>876.152668748367</v>
       </c>
       <c r="Y23" t="n">
-        <v>1339.356344518795</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.3481019751835</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C24" t="n">
-        <v>615.8950726940565</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="D24" t="n">
-        <v>615.8950726940565</v>
+        <v>634.431910393309</v>
       </c>
       <c r="E24" t="n">
-        <v>456.657617688601</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>310.123059715486</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>172.048173848178</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>65.01403338412808</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6095,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2259.353312436967</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2259.353312436967</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2259.353312436967</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.353312436967</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2004.66882423108</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W25" t="n">
-        <v>2004.66882423108</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X25" t="n">
-        <v>2004.66882423108</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>598.0218304032292</v>
+        <v>1092.078449903041</v>
       </c>
       <c r="C26" t="n">
-        <v>598.0218304032292</v>
+        <v>723.1159329626289</v>
       </c>
       <c r="D26" t="n">
-        <v>598.0218304032292</v>
+        <v>723.1159329626289</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2335778049849</v>
+        <v>723.1159329626289</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>312.1300281730213</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>312.1300281730213</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2328.956999338304</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2145.76188647628</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>1925.779127107858</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>1671.992704992726</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V26" t="n">
-        <v>1340.929817649155</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W26" t="n">
-        <v>988.1611623790409</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="X26" t="n">
-        <v>988.1611623790409</v>
+        <v>1092.078449903041</v>
       </c>
       <c r="Y26" t="n">
-        <v>598.0218304032292</v>
+        <v>1092.078449903041</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>843.8100588399052</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C27" t="n">
-        <v>669.3570295587782</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D27" t="n">
-        <v>520.4226198975269</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>361.1851648920714</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>214.6506069189564</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>76.57572105164846</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1219.785694624927</v>
+        <v>1089.378811714019</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.025395859973</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6417,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V28" t="n">
-        <v>353.0840852304234</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.2915060868933</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1506.771186754354</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.808669813942</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="D29" t="n">
-        <v>1137.808669813942</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E29" t="n">
-        <v>1137.808669813942</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F29" t="n">
-        <v>726.8227650243348</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G29" t="n">
-        <v>308.5509975072196</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
         <v>762.591673824455</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="U29" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="V29" t="n">
-        <v>2270.376276991246</v>
+        <v>2095.047237828865</v>
       </c>
       <c r="W29" t="n">
-        <v>2270.376276991246</v>
+        <v>2095.047237828865</v>
       </c>
       <c r="X29" t="n">
-        <v>1896.910518730166</v>
+        <v>2095.047237828865</v>
       </c>
       <c r="Y29" t="n">
-        <v>1506.771186754354</v>
+        <v>1704.907905853054</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>850.313229300958</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>675.860200019831</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>526.9257903585798</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>367.6883353531243</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6545,19 +6545,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1434.140365291513</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318.3514033993496</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C31" t="n">
-        <v>318.3514033993496</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D31" t="n">
-        <v>168.2347639870139</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F31" t="n">
         <v>46.89499644164432</v>
@@ -6660,13 +6660,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>318.3514033993496</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="Y31" t="n">
-        <v>318.3514033993496</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.8412679920488</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C32" t="n">
-        <v>152.8412679920488</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="D32" t="n">
-        <v>152.8412679920488</v>
+        <v>1209.744951435533</v>
       </c>
       <c r="E32" t="n">
-        <v>152.8412679920488</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>152.8412679920488</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>152.8412679920488</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>152.8412679920488</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6706,10 +6706,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X32" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y32" t="n">
-        <v>539.4411080561706</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>704.2697763643505</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C33" t="n">
-        <v>529.8167470832235</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>380.8823374219722</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>221.6448824165167</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,49 +6782,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W33" t="n">
-        <v>1288.096912354905</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X33" t="n">
-        <v>1080.245412149372</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y33" t="n">
-        <v>872.4851133844186</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6885,25 +6885,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>163.1743251005163</v>
+        <v>436.825515838665</v>
       </c>
       <c r="U34" t="n">
-        <v>163.1743251005163</v>
+        <v>436.825515838665</v>
       </c>
       <c r="V34" t="n">
-        <v>163.1743251005163</v>
+        <v>436.825515838665</v>
       </c>
       <c r="W34" t="n">
-        <v>163.1743251005163</v>
+        <v>436.825515838665</v>
       </c>
       <c r="X34" t="n">
-        <v>163.1743251005163</v>
+        <v>436.825515838665</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.1743251005163</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>813.6833397238972</v>
+        <v>1527.46828974532</v>
       </c>
       <c r="C35" t="n">
-        <v>444.7208227834855</v>
+        <v>1158.505772804908</v>
       </c>
       <c r="D35" t="n">
-        <v>86.45512417673501</v>
+        <v>1158.505772804908</v>
       </c>
       <c r="E35" t="n">
-        <v>86.45512417673501</v>
+        <v>772.7175202066637</v>
       </c>
       <c r="F35" t="n">
-        <v>86.45512417673501</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
-        <v>86.45512417673501</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>86.45512417673501</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>1870.980640598662</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V35" t="n">
-        <v>1539.917753255091</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W35" t="n">
-        <v>1187.149097984977</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X35" t="n">
-        <v>813.6833397238972</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="Y35" t="n">
-        <v>813.6833397238972</v>
+        <v>1527.46828974532</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>665.4917812623953</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C36" t="n">
-        <v>665.4917812623953</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>247.2106697623682</v>
       </c>
       <c r="G36" t="n">
         <v>221.6448824165167</v>
@@ -7016,16 +7016,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7055,13 +7055,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1249.31891725295</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X36" t="n">
-        <v>1041.467417047417</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y36" t="n">
-        <v>833.7071182824634</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.7615066161414</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>352.7615066161414</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>352.7615066161414</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>352.7615066161414</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7134,13 +7134,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>534.4099714463812</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X37" t="n">
-        <v>534.4099714463812</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.4099714463812</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>1570.897369376658</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1201.934852436247</v>
+      </c>
+      <c r="D38" t="n">
+        <v>843.6691538294961</v>
+      </c>
+      <c r="E38" t="n">
+        <v>457.8809012312519</v>
+      </c>
+      <c r="F38" t="n">
         <v>46.89499644164432</v>
       </c>
-      <c r="C38" t="n">
-        <v>46.89499644164378</v>
-      </c>
-      <c r="D38" t="n">
-        <v>46.89499644164378</v>
-      </c>
-      <c r="E38" t="n">
-        <v>46.89499644164378</v>
-      </c>
-      <c r="F38" t="n">
-        <v>46.89499644164378</v>
-      </c>
       <c r="G38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2134.717891471475</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1880.931469356342</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>1549.868582012772</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>1197.099926742658</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X38" t="n">
-        <v>823.6341684815778</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.4948365057661</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>772.2290650326996</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072816</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7253,25 +7253,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7295,10 +7295,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1148.204700817721</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>940.4444020527676</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7359,25 +7359,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>502.7829691815762</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1570.897369376658</v>
+        <v>1298.92712746842</v>
       </c>
       <c r="C41" t="n">
-        <v>1201.934852436247</v>
+        <v>929.9646105280087</v>
       </c>
       <c r="D41" t="n">
-        <v>843.6691538294961</v>
+        <v>571.6989119212583</v>
       </c>
       <c r="E41" t="n">
         <v>457.8809012312519</v>
@@ -7411,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7438,25 +7438,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>1923.666024646772</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V41" t="n">
-        <v>1923.666024646772</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W41" t="n">
-        <v>1570.897369376658</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="X41" t="n">
-        <v>1570.897369376658</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="Y41" t="n">
-        <v>1570.897369376658</v>
+        <v>1685.526967532542</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>676.0544483625931</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C42" t="n">
-        <v>501.6014190814661</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D42" t="n">
-        <v>352.6670094202149</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E42" t="n">
-        <v>193.4295544147594</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
         <v>46.89499644164432</v>
@@ -7493,19 +7493,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
         <v>2344.749822082216</v>
@@ -7514,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2338.227766704349</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2176.994211604904</v>
+        <v>2284.028352068954</v>
       </c>
       <c r="T42" t="n">
-        <v>1977.451513658935</v>
+        <v>2084.485654122985</v>
       </c>
       <c r="U42" t="n">
-        <v>1749.271049313092</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V42" t="n">
-        <v>1514.118941081349</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W42" t="n">
-        <v>1259.881584353148</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X42" t="n">
-        <v>1052.030084147615</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y42" t="n">
-        <v>844.2697853826612</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.3514033993496</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C43" t="n">
-        <v>318.3514033993496</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D43" t="n">
-        <v>318.3514033993496</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="E43" t="n">
-        <v>318.3514033993496</v>
+        <v>231.8659289558998</v>
       </c>
       <c r="F43" t="n">
-        <v>318.3514033993496</v>
+        <v>84.97598145798943</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7572,7 +7572,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7608,13 +7608,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>318.3514033993496</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.3514033993496</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1112.775552894006</v>
+        <v>1655.59865527635</v>
       </c>
       <c r="C44" t="n">
-        <v>795.5153732847182</v>
+        <v>1286.636138335938</v>
       </c>
       <c r="D44" t="n">
-        <v>795.5153732847182</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="E44" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1796.607095507691</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V44" t="n">
-        <v>1465.54420816412</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W44" t="n">
-        <v>1112.775552894006</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.775552894006</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1112.775552894006</v>
+        <v>2042.198495340472</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>655.188735918191</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>655.188735918191</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7730,22 +7730,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7766,13 +7766,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1239.015871908746</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1031.164371703213</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.4040729382591</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
       <c r="C46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
       <c r="D46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
       <c r="E46" t="n">
-        <v>318.3514033993496</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F46" t="n">
-        <v>318.3514033993496</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7833,25 +7833,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>591.8444521194426</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>363.946030277528</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
       <c r="X46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.3514033993496</v>
+        <v>363.946030277528</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,10 +8303,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.497819457984</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q18" t="n">
         <v>57.08896698613911</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>323.3866360392488</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q24" t="n">
         <v>57.08896698613911</v>
@@ -10193,7 +10193,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10430,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>323.3866360392488</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>323.3866360392485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>292.1994512088885</v>
       </c>
       <c r="D11" t="n">
-        <v>275.3860145206332</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>57.98884467712199</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>129.50721899158</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>78.2722373409284</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>182.5872501244043</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>114.0781533087061</v>
       </c>
       <c r="H14" t="n">
-        <v>214.2692222532364</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.98884467712164</v>
       </c>
       <c r="S15" t="n">
-        <v>53.38246657340278</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>116.329989517316</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>175.4622480874619</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.96077946991554</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>113.4287320481387</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.57988169550534</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>243.2571463024451</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>154.5569710948526</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>152.3059218470144</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>42.63153801739882</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>57.68066053825336</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>17.52361544488252</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>51.38478507823021</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>243.2077974676283</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30.74927216039544</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>49.10074148265534</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>68.27181102736847</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>201.9804537877945</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>64.46244181863585</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>57.99491512358782</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>76.57988169550534</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>90.35770686414271</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>82.90401630215915</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24657,19 +24657,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>68.00568217777953</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -24739,13 +24739,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>261.9098617927204</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>31.21653193536787</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>26.30759277665329</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>34.45051553934394</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>51.67401021196764</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>58.79838671480674</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>81.31564129514283</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>52.33002547867233</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25125,10 +25125,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>56.38581060182656</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>102.4007970562863</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>124.5206690919674</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>111.384007536242</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>42.92542614420719</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>213.8979823665612</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>175.5524658530037</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>9.851320470103616</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>76.48766178109264</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>148.5953370768083</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>110.5931200167538</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>269.2505394891554</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>89.36856980635642</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25724,10 +25724,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.38246657340287</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>99.50696423532062</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>129.746385684774</v>
       </c>
       <c r="H43" t="n">
-        <v>27.72327979058417</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>51.18531395781235</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>337.9606830757078</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>32.72541125344495</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>56.09151501264824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26073,10 +26073,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>198.7639881252416</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559480.9175045734</v>
+        <v>559480.9175045735</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559480.9175045736</v>
+        <v>559480.9175045735</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>559480.9175045734</v>
+        <v>559480.9175045735</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559480.9175045734</v>
+        <v>559480.9175045732</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>559480.9175045734</v>
+        <v>559480.9175045732</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>559480.9175045732</v>
+        <v>559480.9175045735</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>559480.9175045734</v>
+        <v>559480.9175045735</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>559480.9175045735</v>
+        <v>559480.9175045734</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>383345.344658112</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581123</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="I2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="J2" t="n">
+        <v>383345.3446581122</v>
+      </c>
+      <c r="K2" t="n">
         <v>383345.3446581123</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383345.3446581122</v>
       </c>
       <c r="L2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="M2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="N2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="O2" t="n">
         <v>383345.3446581123</v>
       </c>
       <c r="P2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.344658112</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>17955.06337365307</v>
       </c>
       <c r="P4" t="n">
-        <v>17955.06337365306</v>
+        <v>17955.06337365307</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170344.3655808556</v>
+        <v>170344.3655808555</v>
       </c>
       <c r="C6" t="n">
-        <v>251113.7971124034</v>
+        <v>251113.7971124033</v>
       </c>
       <c r="D6" t="n">
-        <v>251113.7971124035</v>
+        <v>251113.7971124033</v>
       </c>
       <c r="E6" t="n">
-        <v>-22443.7836199402</v>
+        <v>-29751.02287833635</v>
       </c>
       <c r="F6" t="n">
-        <v>323168.5591590127</v>
+        <v>315861.3199006163</v>
       </c>
       <c r="G6" t="n">
-        <v>323168.5591590126</v>
+        <v>315861.3199006163</v>
       </c>
       <c r="H6" t="n">
-        <v>323168.5591590125</v>
+        <v>315861.3199006163</v>
       </c>
       <c r="I6" t="n">
-        <v>323168.5591590127</v>
+        <v>315861.3199006164</v>
       </c>
       <c r="J6" t="n">
-        <v>260108.6165599065</v>
+        <v>252801.3773015101</v>
       </c>
       <c r="K6" t="n">
-        <v>323168.5591590126</v>
+        <v>315861.3199006164</v>
       </c>
       <c r="L6" t="n">
-        <v>323168.5591590127</v>
+        <v>315861.3199006164</v>
       </c>
       <c r="M6" t="n">
-        <v>237150.0253389365</v>
+        <v>229842.7860805403</v>
       </c>
       <c r="N6" t="n">
-        <v>323168.5591590126</v>
+        <v>315861.3199006164</v>
       </c>
       <c r="O6" t="n">
-        <v>323168.5591590127</v>
+        <v>315861.3199006164</v>
       </c>
       <c r="P6" t="n">
-        <v>323168.5591590125</v>
+        <v>315861.3199006161</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26773,10 +26773,10 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
         <v>586.1874555205541</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27441,13 +27441,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.0713248386154</v>
+        <v>335.9462234883513</v>
       </c>
     </row>
     <row r="3">
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>33.95871600468959</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.31373790479822</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>134.5736593549025</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>270.3577518517409</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27745,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>151.105136561088</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>60.59236530492268</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27791,16 +27791,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.0820148970801</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.67434231518531</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>137.7060311583433</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32022,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32098,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32107,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33912,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33982,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35655,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>228.5170346547482</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35746,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35977,10 +35977,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093428</v>
@@ -36211,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>360.9378791584968</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36451,10 +36451,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36928,7 +36928,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37165,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>360.9378791584968</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37557,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37718,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37873,10 +37873,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>360.9378791584966</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
